--- a/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
+++ b/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrenoXDMoon\Documents\GitHub\ProjetoLes\Documentos\Estimativa de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847E2020-F21E-476E-B468-D4552F720172}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFEF4AD-D2A1-4730-B164-616EEA3CC537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9FF7230-91BA-A544-8A5A-3054F2DD43A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>(horas)</t>
   </si>
@@ -125,9 +125,18 @@
     <t>Selecionar endereço de entrega</t>
   </si>
   <si>
+    <t>Selecionar forma de pagamento</t>
+  </si>
+  <si>
     <t>Finalizar Compra</t>
   </si>
   <si>
+    <t>Despachar produtos para entrega</t>
+  </si>
+  <si>
+    <t>Produtos entregues</t>
+  </si>
+  <si>
     <t>Solicitar troca</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
     <t>Realizar reentrada em estoque</t>
   </si>
   <si>
+    <t>Log de transação</t>
+  </si>
+  <si>
     <t>Tela de Carrinho de Compras</t>
   </si>
   <si>
@@ -210,28 +222,13 @@
   </si>
   <si>
     <t>Tela de Alteração de Carta</t>
-  </si>
-  <si>
-    <t>Selecionar cartão de pagamento</t>
-  </si>
-  <si>
-    <t>Alterar Status do Pedido</t>
-  </si>
-  <si>
-    <t>Em Andamento</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
-    <t>Não iniciado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,21 +286,8 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,11 +321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -380,10 +359,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -441,6 +419,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,26 +434,169 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1236,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B692412-8401-4F44-8DDD-33476696CC96}">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1382,7 @@
     <col min="11" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1276,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="18" t="s">
         <v>4</v>
@@ -1290,11 +1417,11 @@
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1302,7 +1429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
         <v>10</v>
@@ -1315,1209 +1442,769 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19">
-        <v>2</v>
-      </c>
-      <c r="D4" s="19">
-        <v>4</v>
-      </c>
-      <c r="E4" s="19">
-        <v>7</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="25" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="19">
-        <v>2</v>
-      </c>
-      <c r="D5" s="19">
-        <v>4</v>
-      </c>
-      <c r="E5" s="19">
-        <v>7</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="19">
-        <v>1</v>
-      </c>
-      <c r="D6" s="19">
-        <v>3</v>
-      </c>
-      <c r="E6" s="19">
-        <v>4</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="19">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>2</v>
-      </c>
-      <c r="E7" s="19">
-        <v>3</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2</v>
-      </c>
-      <c r="E8" s="19">
-        <v>4</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="19">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>2</v>
-      </c>
-      <c r="E9" s="19">
-        <v>3</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="19">
-        <v>2</v>
-      </c>
-      <c r="D10" s="19">
-        <v>3</v>
-      </c>
-      <c r="E10" s="19">
-        <v>4</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2</v>
-      </c>
-      <c r="E11" s="19">
-        <v>3</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="19">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19">
-        <v>3</v>
-      </c>
-      <c r="E12" s="19">
-        <v>5</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="19">
-        <v>3</v>
-      </c>
-      <c r="E13" s="19">
-        <v>5</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>3</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="19">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>3</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="19">
-        <v>3</v>
-      </c>
-      <c r="D16" s="19">
-        <v>4</v>
-      </c>
-      <c r="E16" s="19">
-        <v>8</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="19">
-        <v>2</v>
-      </c>
-      <c r="D17" s="19">
-        <v>3</v>
-      </c>
-      <c r="E17" s="19">
-        <v>4</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="19">
-        <v>2</v>
-      </c>
-      <c r="D18" s="19">
-        <v>3</v>
-      </c>
-      <c r="E18" s="19">
-        <v>4</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="19">
-        <v>3</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="19">
-        <v>4</v>
-      </c>
-      <c r="D20" s="19">
-        <v>5</v>
-      </c>
-      <c r="E20" s="19">
-        <v>6</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="19">
-        <v>2</v>
-      </c>
-      <c r="D21" s="19">
-        <v>3</v>
-      </c>
-      <c r="E21" s="19">
-        <v>4</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="19">
-        <v>4</v>
-      </c>
-      <c r="D22" s="19">
-        <v>6</v>
-      </c>
-      <c r="E22" s="19">
-        <v>9</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="19">
-        <v>2</v>
-      </c>
-      <c r="D23" s="19">
-        <v>3</v>
-      </c>
-      <c r="E23" s="19">
-        <v>4</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="19">
-        <v>1</v>
-      </c>
-      <c r="D24" s="19">
-        <v>2</v>
-      </c>
-      <c r="E24" s="19">
-        <v>3</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="19">
-        <v>1</v>
-      </c>
-      <c r="D25" s="19">
-        <v>2</v>
-      </c>
-      <c r="E25" s="19">
-        <v>3</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="19">
-        <v>2</v>
-      </c>
-      <c r="D26" s="19">
-        <v>3</v>
-      </c>
-      <c r="E26" s="19">
-        <v>4</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="19">
-        <v>1</v>
-      </c>
-      <c r="D27" s="19">
-        <v>2</v>
-      </c>
-      <c r="E27" s="19">
-        <v>3</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="19">
-        <v>4</v>
-      </c>
-      <c r="D28" s="19">
-        <v>6</v>
-      </c>
-      <c r="E28" s="19">
-        <v>8</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="19">
-        <v>4</v>
-      </c>
-      <c r="D29" s="19">
-        <v>6</v>
-      </c>
-      <c r="E29" s="19">
-        <v>8</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="19">
-        <v>2</v>
-      </c>
-      <c r="D30" s="19">
-        <v>4</v>
-      </c>
-      <c r="E30" s="19">
-        <v>7</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="19">
-        <v>4</v>
-      </c>
-      <c r="D31" s="19">
-        <v>6</v>
-      </c>
-      <c r="E31" s="19">
-        <v>8</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="19">
-        <v>4</v>
-      </c>
-      <c r="D32" s="19">
-        <v>6</v>
-      </c>
-      <c r="E32" s="19">
-        <v>8</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="19">
-        <v>1</v>
-      </c>
-      <c r="D33" s="19">
-        <v>2</v>
-      </c>
-      <c r="E33" s="19">
-        <v>3</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="19">
-        <v>2</v>
-      </c>
-      <c r="D34" s="19">
-        <v>3</v>
-      </c>
-      <c r="E34" s="19">
-        <v>4</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="19">
-        <v>3</v>
-      </c>
-      <c r="D35" s="19">
-        <v>5</v>
-      </c>
-      <c r="E35" s="19">
-        <v>6</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="19">
-        <v>3</v>
-      </c>
-      <c r="D36" s="19">
-        <v>5</v>
-      </c>
-      <c r="E36" s="19">
-        <v>6</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="19">
-        <v>4</v>
-      </c>
-      <c r="D37" s="19">
-        <v>7</v>
-      </c>
-      <c r="E37" s="19">
-        <v>13</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="19">
-        <v>2</v>
-      </c>
-      <c r="D39" s="19">
-        <v>3</v>
-      </c>
-      <c r="E39" s="19">
-        <v>4</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="19">
-        <v>2</v>
-      </c>
-      <c r="D40" s="19">
-        <v>3</v>
-      </c>
-      <c r="E40" s="19">
-        <v>4</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="19">
-        <v>2</v>
-      </c>
-      <c r="D41" s="19">
-        <v>3</v>
-      </c>
-      <c r="E41" s="19">
-        <v>4</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="19">
-        <v>2</v>
-      </c>
-      <c r="D42" s="19">
-        <v>3</v>
-      </c>
-      <c r="E42" s="19">
-        <v>4</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="19">
-        <v>2</v>
-      </c>
-      <c r="D43" s="19">
-        <v>3</v>
-      </c>
-      <c r="E43" s="19">
-        <v>4</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="19">
-        <v>2</v>
-      </c>
-      <c r="D44" s="19">
-        <v>3</v>
-      </c>
-      <c r="E44" s="19">
-        <v>4</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="19">
-        <v>2</v>
-      </c>
-      <c r="D45" s="19">
-        <v>3</v>
-      </c>
-      <c r="E45" s="19">
-        <v>4</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="19">
-        <v>2</v>
-      </c>
-      <c r="D46" s="19">
-        <v>3</v>
-      </c>
-      <c r="E46" s="19">
-        <v>4</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="19">
-        <v>2</v>
-      </c>
-      <c r="D47" s="19">
-        <v>3</v>
-      </c>
-      <c r="E47" s="19">
-        <v>4</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="19">
-        <v>2</v>
-      </c>
-      <c r="D48" s="19">
-        <v>3</v>
-      </c>
-      <c r="E48" s="19">
-        <v>4</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="19">
-        <v>2</v>
-      </c>
-      <c r="D49" s="19">
-        <v>3</v>
-      </c>
-      <c r="E49" s="19">
-        <v>4</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="19">
-        <v>2</v>
-      </c>
-      <c r="D50" s="19">
-        <v>3</v>
-      </c>
-      <c r="E50" s="19">
-        <v>4</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="19">
-        <v>2</v>
-      </c>
-      <c r="D51" s="19">
-        <v>3</v>
-      </c>
-      <c r="E51" s="19">
-        <v>4</v>
-      </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="C52" s="14">
-        <f>SUM(C4:C51)</f>
-        <v>99</v>
-      </c>
-      <c r="D52" s="10">
-        <f>SUM(D4:D51)</f>
-        <v>159</v>
-      </c>
-      <c r="E52" s="13">
-        <f>SUM(E4:E51)</f>
-        <v>229</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="24"/>
+    </row>
+    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="C54" s="14">
+        <f>SUM(C4:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <f>SUM(D4:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="13">
+        <f>SUM(E4:E53)</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:H3 F1 H1 F52:H1048576 H39:H51 F39:F51 H10:H37 F4:G37">
-    <cfRule type="containsText" dxfId="44" priority="94" operator="containsText" text=":)">
+  <conditionalFormatting sqref="F2:H3 F1 H1 F54:H1048576 H41:H53 F41:F53">
+    <cfRule type="containsText" dxfId="59" priority="70" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="95" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="96" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E37 C39:E1048576">
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="F4:F39">
+    <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="68" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="69" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:E39 C41:E1048576">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="8"/>
         <cfvo type="num" val="40"/>
@@ -2526,19 +2213,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:H38">
-    <cfRule type="containsText" dxfId="41" priority="87" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",F38)))</formula>
+  <conditionalFormatting sqref="F40:H40">
+    <cfRule type="containsText" dxfId="53" priority="63" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="88" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",F38)))</formula>
+    <cfRule type="containsText" dxfId="52" priority="64" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="89" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",F38)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="65" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",F40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:E38">
-    <cfRule type="colorScale" priority="86">
+  <conditionalFormatting sqref="C40:E40">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="num" val="8"/>
         <cfvo type="num" val="40"/>
@@ -2547,91 +2234,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="38" priority="79" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H8)))</formula>
+  <conditionalFormatting sqref="H4:H39">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="80" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H8)))</formula>
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="81" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H8)))</formula>
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="35" priority="73" operator="containsText" text=":)">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G51">
-    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",G39)))</formula>
+  <conditionalFormatting sqref="G4:G39">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="56" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",G39)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="57" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",G39)))</formula>
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H7">
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H4)))</formula>
+  <conditionalFormatting sqref="G41:G53">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",G41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H4)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",G41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3 T3">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",R3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",R3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",R3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:Q3">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="num" val="8"/>
-        <cfvo type="num" val="40"/>
-        <color theme="0"/>
-        <color theme="7" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3">
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",S3)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",G41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2640,23 +2284,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100301B24C317AEAA4A9E81584B0F1753BF" ma:contentTypeVersion="1" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ea2d69a61fc7a42705a79b5983b790a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="13526e60-2309-4b29-b958-df71ed96cd48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0df65a6dff0c15483f5753a509519d7a" ns2:_="">
     <xsd:import namespace="13526e60-2309-4b29-b958-df71ed96cd48"/>
@@ -2782,25 +2409,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA58E31-EA10-4926-9E03-5E76E8F2B1AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2816,4 +2442,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
+++ b/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrenoXDMoon\Desktop\TCC FATEC\loja-de-mang\Documentos\Estimativa de Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrenoXDMoon\Documents\GitHub\ProjetoLes\Documentos\Estimativa de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C45A356-8CAD-46B0-AA7B-674206025906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFEF4AD-D2A1-4730-B164-616EEA3CC537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9FF7230-91BA-A544-8A5A-3054F2DD43A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>(horas)</t>
   </si>
@@ -74,39 +74,15 @@
     <t>Modelar classes de domínio</t>
   </si>
   <si>
-    <t>Cadastrar Mangá</t>
-  </si>
-  <si>
-    <t>Consulta de Mangá</t>
-  </si>
-  <si>
-    <t>Alterar de Mangá</t>
-  </si>
-  <si>
-    <t>Tela de Cadastro de Mangá</t>
-  </si>
-  <si>
-    <t>Tela de Consulta de Mangá</t>
-  </si>
-  <si>
     <t>Modelar Banco de Dados</t>
   </si>
   <si>
-    <t>Inativar Cadastro de Mangá de forma automática</t>
-  </si>
-  <si>
-    <t>Ativar cadastro de mangás</t>
-  </si>
-  <si>
     <t>Cadastrar cliente</t>
   </si>
   <si>
     <t>Alterar cliente</t>
   </si>
   <si>
-    <t>Tela de Alteração de Mangá</t>
-  </si>
-  <si>
     <t>Tela de Cadastro de Cliente</t>
   </si>
   <si>
@@ -119,9 +95,6 @@
     <t>Inativar cadastro de cliente</t>
   </si>
   <si>
-    <t>Inativar Cadastro de Mangá</t>
-  </si>
-  <si>
     <t>Consulta de clientes</t>
   </si>
   <si>
@@ -218,26 +191,44 @@
     <t>Tela de Consulta de Cliente</t>
   </si>
   <si>
-    <t>Concluído</t>
-  </si>
-  <si>
-    <t>Não Atingido</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Concluído em Partes</t>
-  </si>
-  <si>
     <t>Tela de gráfico</t>
+  </si>
+  <si>
+    <t>Cadastrar Carta</t>
+  </si>
+  <si>
+    <t>Consulta de Carta</t>
+  </si>
+  <si>
+    <t>Alterar de Carta</t>
+  </si>
+  <si>
+    <t>Inativar Cadastro de Carta</t>
+  </si>
+  <si>
+    <t>Inativar Cadastro de Carta de forma automática</t>
+  </si>
+  <si>
+    <t>Ativar cadastro de Cartas</t>
+  </si>
+  <si>
+    <t>Tela de Cadastro de Carta</t>
+  </si>
+  <si>
+    <t>Tela de Consulta de Carta</t>
+  </si>
+  <si>
+    <t>Tela de Alteração de Carta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,12 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -295,21 +280,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,18 +323,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -375,14 +343,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,29 +419,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="2">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Ruim" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="60">
     <dxf>
@@ -1381,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B692412-8401-4F44-8DDD-33476696CC96}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1433,16 +1417,16 @@
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1460,727 +1444,511 @@
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="19" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="19" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="19" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1">
-        <v>5</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>5</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>62</v>
-      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
@@ -2194,281 +1962,203 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="21"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="1">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1">
-        <v>6</v>
-      </c>
-      <c r="E41" s="1">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1">
-        <v>7</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4</v>
-      </c>
-      <c r="E43" s="1">
-        <v>5</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1">
-        <v>7</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4</v>
-      </c>
-      <c r="E45" s="1">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="A45" s="22"/>
+      <c r="B45" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
-        <v>4</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="A46" s="22"/>
+      <c r="B46" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1">
-        <v>5</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
-        <v>5</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1">
-        <v>4</v>
-      </c>
-      <c r="E50" s="1">
-        <v>6</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="1">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4</v>
-      </c>
-      <c r="E51" s="1">
-        <v>6</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="1">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1">
-        <v>6</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J52" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>10</v>
-      </c>
-      <c r="E53" s="1">
-        <v>15</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>62</v>
-      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="24"/>
     </row>
     <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="C54" s="14">
         <f>SUM(C4:C53)</f>
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D54" s="10">
         <f>SUM(D4:D53)</f>
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="E54" s="13">
         <f>SUM(E4:E53)</f>
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -2491,7 +2181,7 @@
   <mergeCells count="1">
     <mergeCell ref="F2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:H3 F1 H1 F8:H8 F11:G14 H41:H43 F41:F43 F44:G44 F10:H10 F9:G9 F15:H37 F39:H39 F45:F52 H45:H52 F53:H1048576">
+  <conditionalFormatting sqref="F2:H3 F1 H1 F54:H1048576 H41:H53 F41:F53">
     <cfRule type="containsText" dxfId="59" priority="70" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",F1)))</formula>
     </cfRule>
@@ -2502,7 +2192,7 @@
       <formula>NOT(ISERROR(SEARCH(":(",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F4:F39">
     <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",F4)))</formula>
     </cfRule>
@@ -2513,7 +2203,7 @@
       <formula>NOT(ISERROR(SEARCH(":(",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:E9 C1:E5 C11:E39 C41:E1048576">
+  <conditionalFormatting sqref="C1:E39 C41:E1048576">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="8"/>
@@ -2544,7 +2234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
+  <conditionalFormatting sqref="H4:H39">
     <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",H4)))</formula>
     </cfRule>
@@ -2566,7 +2256,7 @@
       <formula>NOT(ISERROR(SEARCH(":(",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
+  <conditionalFormatting sqref="G4:G39">
     <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",G4)))</formula>
     </cfRule>
@@ -2577,40 +2267,7 @@
       <formula>NOT(ISERROR(SEARCH(":(",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",G6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",G6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",G6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G41:G53">
     <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",G41)))</formula>
     </cfRule>
@@ -2621,139 +2278,12 @@
       <formula>NOT(ISERROR(SEARCH(":(",G41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",G42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",G42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",G42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",F5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",F5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H14">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",G43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",G43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",G43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G52">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",G45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",G45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",G45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",G38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",G38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",G38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100301B24C317AEAA4A9E81584B0F1753BF" ma:contentTypeVersion="1" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ea2d69a61fc7a42705a79b5983b790a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="13526e60-2309-4b29-b958-df71ed96cd48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0df65a6dff0c15483f5753a509519d7a" ns2:_="">
     <xsd:import namespace="13526e60-2309-4b29-b958-df71ed96cd48"/>
@@ -2879,25 +2409,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA58E31-EA10-4926-9E03-5E76E8F2B1AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2913,4 +2442,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
+++ b/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrenoXDMoon\Documents\GitHub\ProjetoLes\Documentos\Estimativa de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFEF4AD-D2A1-4730-B164-616EEA3CC537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847E2020-F21E-476E-B468-D4552F720172}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9FF7230-91BA-A544-8A5A-3054F2DD43A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
   <si>
     <t>(horas)</t>
   </si>
@@ -125,18 +125,9 @@
     <t>Selecionar endereço de entrega</t>
   </si>
   <si>
-    <t>Selecionar forma de pagamento</t>
-  </si>
-  <si>
     <t>Finalizar Compra</t>
   </si>
   <si>
-    <t>Despachar produtos para entrega</t>
-  </si>
-  <si>
-    <t>Produtos entregues</t>
-  </si>
-  <si>
     <t>Solicitar troca</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>Realizar reentrada em estoque</t>
   </si>
   <si>
-    <t>Log de transação</t>
-  </si>
-  <si>
     <t>Tela de Carrinho de Compras</t>
   </si>
   <si>
@@ -222,13 +210,28 @@
   </si>
   <si>
     <t>Tela de Alteração de Carta</t>
+  </si>
+  <si>
+    <t>Selecionar cartão de pagamento</t>
+  </si>
+  <si>
+    <t>Alterar Status do Pedido</t>
+  </si>
+  <si>
+    <t>Em Andamento</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Não iniciado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,8 +289,21 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +337,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -359,9 +380,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -419,12 +441,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,169 +450,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1363,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B692412-8401-4F44-8DDD-33476696CC96}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1255,7 @@
     <col min="11" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1403,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="18" t="s">
         <v>4</v>
@@ -1417,11 +1290,11 @@
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
         <v>10</v>
@@ -1442,769 +1315,1209 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25" t="s">
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>4</v>
+      </c>
+      <c r="E4" s="19">
+        <v>7</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25" t="s">
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19">
+        <v>7</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>4</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>4</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="25" t="s">
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25" t="s">
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3</v>
+      </c>
+      <c r="E12" s="19">
+        <v>5</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19">
+        <v>5</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19">
+        <v>8</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3</v>
+      </c>
+      <c r="E17" s="19">
+        <v>4</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2</v>
+      </c>
+      <c r="D18" s="19">
+        <v>3</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="19">
+        <v>4</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5</v>
+      </c>
+      <c r="E20" s="19">
+        <v>6</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2</v>
+      </c>
+      <c r="D21" s="19">
+        <v>3</v>
+      </c>
+      <c r="E21" s="19">
+        <v>4</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="19">
+        <v>4</v>
+      </c>
+      <c r="D22" s="19">
+        <v>6</v>
+      </c>
+      <c r="E22" s="19">
+        <v>9</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2</v>
+      </c>
+      <c r="D23" s="19">
+        <v>3</v>
+      </c>
+      <c r="E23" s="19">
+        <v>4</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2</v>
+      </c>
+      <c r="E24" s="19">
+        <v>3</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>3</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="19">
+        <v>2</v>
+      </c>
+      <c r="D26" s="19">
+        <v>3</v>
+      </c>
+      <c r="E26" s="19">
+        <v>4</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2</v>
+      </c>
+      <c r="E27" s="19">
+        <v>3</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="19">
+        <v>4</v>
+      </c>
+      <c r="D28" s="19">
+        <v>6</v>
+      </c>
+      <c r="E28" s="19">
+        <v>8</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="19">
+        <v>4</v>
+      </c>
+      <c r="D29" s="19">
+        <v>6</v>
+      </c>
+      <c r="E29" s="19">
+        <v>8</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="19">
+        <v>2</v>
+      </c>
+      <c r="D30" s="19">
+        <v>4</v>
+      </c>
+      <c r="E30" s="19">
+        <v>7</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="19">
+        <v>4</v>
+      </c>
+      <c r="D31" s="19">
+        <v>6</v>
+      </c>
+      <c r="E31" s="19">
+        <v>8</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="19">
+        <v>4</v>
+      </c>
+      <c r="D32" s="19">
+        <v>6</v>
+      </c>
+      <c r="E32" s="19">
+        <v>8</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+      <c r="D33" s="19">
+        <v>2</v>
+      </c>
+      <c r="E33" s="19">
+        <v>3</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="19">
+        <v>2</v>
+      </c>
+      <c r="D34" s="19">
+        <v>3</v>
+      </c>
+      <c r="E34" s="19">
+        <v>4</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="19">
+        <v>3</v>
+      </c>
+      <c r="D35" s="19">
+        <v>5</v>
+      </c>
+      <c r="E35" s="19">
+        <v>6</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="19">
+        <v>3</v>
+      </c>
+      <c r="D36" s="19">
+        <v>5</v>
+      </c>
+      <c r="E36" s="19">
+        <v>6</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="19">
+        <v>4</v>
+      </c>
+      <c r="D37" s="19">
+        <v>7</v>
+      </c>
+      <c r="E37" s="19">
+        <v>13</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="26" t="s">
+      <c r="C39" s="19">
+        <v>2</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3</v>
+      </c>
+      <c r="E39" s="19">
+        <v>4</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26" t="s">
+      <c r="C40" s="19">
+        <v>2</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3</v>
+      </c>
+      <c r="E40" s="19">
+        <v>4</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="26" t="s">
+      <c r="C41" s="19">
+        <v>2</v>
+      </c>
+      <c r="D41" s="19">
+        <v>3</v>
+      </c>
+      <c r="E41" s="19">
+        <v>4</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="19">
+        <v>2</v>
+      </c>
+      <c r="D42" s="19">
+        <v>3</v>
+      </c>
+      <c r="E42" s="19">
+        <v>4</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="19">
+        <v>2</v>
+      </c>
+      <c r="D43" s="19">
+        <v>3</v>
+      </c>
+      <c r="E43" s="19">
+        <v>4</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="19">
+        <v>2</v>
+      </c>
+      <c r="D44" s="19">
+        <v>3</v>
+      </c>
+      <c r="E44" s="19">
+        <v>4</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="26" t="s">
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="19">
+        <v>3</v>
+      </c>
+      <c r="E45" s="19">
+        <v>4</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="25" t="s">
+      <c r="C46" s="19">
+        <v>2</v>
+      </c>
+      <c r="D46" s="19">
+        <v>3</v>
+      </c>
+      <c r="E46" s="19">
+        <v>4</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="25" t="s">
+      <c r="C47" s="19">
+        <v>2</v>
+      </c>
+      <c r="D47" s="19">
+        <v>3</v>
+      </c>
+      <c r="E47" s="19">
+        <v>4</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="25" t="s">
+      <c r="C48" s="19">
+        <v>2</v>
+      </c>
+      <c r="D48" s="19">
+        <v>3</v>
+      </c>
+      <c r="E48" s="19">
+        <v>4</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="24"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="24"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="25" t="s">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="25" t="s">
+      <c r="C49" s="19">
+        <v>2</v>
+      </c>
+      <c r="D49" s="19">
+        <v>3</v>
+      </c>
+      <c r="E49" s="19">
+        <v>4</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="24"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="24"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="24"/>
+      <c r="C50" s="19">
+        <v>2</v>
+      </c>
+      <c r="D50" s="19">
+        <v>3</v>
+      </c>
+      <c r="E50" s="19">
+        <v>4</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="25" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="24"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="25" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="24"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="C54" s="14">
-        <f>SUM(C4:C53)</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="10">
-        <f>SUM(D4:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="13">
-        <f>SUM(E4:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="11"/>
+      <c r="C51" s="19">
+        <v>2</v>
+      </c>
+      <c r="D51" s="19">
+        <v>3</v>
+      </c>
+      <c r="E51" s="19">
+        <v>4</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="C52" s="14">
+        <f>SUM(C4:C51)</f>
+        <v>99</v>
+      </c>
+      <c r="D52" s="10">
+        <f>SUM(D4:D51)</f>
+        <v>159</v>
+      </c>
+      <c r="E52" s="13">
+        <f>SUM(E4:E51)</f>
+        <v>229</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:H3 F1 H1 F54:H1048576 H41:H53 F41:F53">
-    <cfRule type="containsText" dxfId="59" priority="70" operator="containsText" text=":)">
+  <conditionalFormatting sqref="F2:H3 F1 H1 F52:H1048576 H39:H51 F39:F51 H10:H37 F4:G37">
+    <cfRule type="containsText" dxfId="44" priority="94" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="71" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="43" priority="95" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="72" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="42" priority="96" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F39">
-    <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",F4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="68" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",F4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="69" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",F4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E39 C41:E1048576">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="C1:E37 C39:E1048576">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="num" val="8"/>
         <cfvo type="num" val="40"/>
@@ -2213,19 +2526,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:H40">
-    <cfRule type="containsText" dxfId="53" priority="63" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",F40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="64" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",F40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="65" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",F40)))</formula>
+  <conditionalFormatting sqref="F38:H38">
+    <cfRule type="containsText" dxfId="41" priority="87" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="88" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="89" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:E40">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="C38:E38">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="num" val="8"/>
         <cfvo type="num" val="40"/>
@@ -2234,48 +2547,91 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H39">
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",H4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",H4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",H4)))</formula>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="38" priority="79" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",H8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="80" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",H8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="81" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text=":)">
+    <cfRule type="containsText" dxfId="35" priority="73" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G39">
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",G4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",G4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",G4)))</formula>
+  <conditionalFormatting sqref="G39:G51">
+    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",G39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="56" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",G39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="57" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",G39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G53">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",G41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",G41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",G41)))</formula>
+  <conditionalFormatting sqref="H4:H7">
+    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",H4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",H4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",H4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",H9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3 T3">
+    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",R3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",R3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",R3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:Q3">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="8"/>
+        <cfvo type="num" val="40"/>
+        <color theme="0"/>
+        <color theme="7" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text=":)">
+      <formula>NOT(ISERROR(SEARCH(":)",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text=":|">
+      <formula>NOT(ISERROR(SEARCH(":|",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text=":(">
+      <formula>NOT(ISERROR(SEARCH(":(",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2284,6 +2640,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100301B24C317AEAA4A9E81584B0F1753BF" ma:contentTypeVersion="1" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ea2d69a61fc7a42705a79b5983b790a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="13526e60-2309-4b29-b958-df71ed96cd48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0df65a6dff0c15483f5753a509519d7a" ns2:_="">
     <xsd:import namespace="13526e60-2309-4b29-b958-df71ed96cd48"/>
@@ -2409,24 +2782,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA58E31-EA10-4926-9E03-5E76E8F2B1AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2442,22 +2816,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
+++ b/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrenoXDMoon\Documents\GitHub\ProjetoLes\Documentos\Estimativa de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847E2020-F21E-476E-B468-D4552F720172}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60EC19B-9576-4B9A-A7AA-333DF0028B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9FF7230-91BA-A544-8A5A-3054F2DD43A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
   <si>
     <t>(horas)</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Tela de Alteração de Cliente</t>
-  </si>
-  <si>
     <t>Inativar cadastro de cliente</t>
   </si>
   <si>
@@ -206,12 +203,6 @@
     <t>Tela de Cadastro de Carta</t>
   </si>
   <si>
-    <t>Tela de Consulta de Carta</t>
-  </si>
-  <si>
-    <t>Tela de Alteração de Carta</t>
-  </si>
-  <si>
     <t>Selecionar cartão de pagamento</t>
   </si>
   <si>
@@ -221,10 +212,70 @@
     <t>Em Andamento</t>
   </si>
   <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
     <t>Não iniciado</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Tela de Edição de Carta</t>
+  </si>
+  <si>
+    <t>Tela de Edição de Cliente</t>
+  </si>
+  <si>
+    <t>Tela de Cadastro de Endereço</t>
+  </si>
+  <si>
+    <t>Tela de Edição de Endereço</t>
+  </si>
+  <si>
+    <t>Tela de Cadastro de Documento</t>
+  </si>
+  <si>
+    <t>Tela de Edição de Documento</t>
+  </si>
+  <si>
+    <t>Tela de Cadastro de Cartão de Crédito</t>
+  </si>
+  <si>
+    <t>Tela de Edição de Cartão de Crédito</t>
+  </si>
+  <si>
+    <t>Tela de Perfil de Cliente</t>
+  </si>
+  <si>
+    <t>Tela de Edição apenas da Senha do Cliente</t>
+  </si>
+  <si>
+    <t>Tela de Edição dos Dados Básicos de Cliente</t>
+  </si>
+  <si>
+    <t>Tela de Cadastro de Cupom</t>
+  </si>
+  <si>
+    <t>Tela de Consulta de Cupom</t>
+  </si>
+  <si>
+    <t>Tela de Edição de Cupom</t>
+  </si>
+  <si>
+    <t>Tela de Consulta de Carta (Admin)</t>
+  </si>
+  <si>
+    <t>Tela de Consulta de Carta (Cliente)</t>
+  </si>
+  <si>
+    <t>Nesta tela é possível Excluir Cartas</t>
+  </si>
+  <si>
+    <t>Nesta tela é possível Excluir Cupons</t>
+  </si>
+  <si>
+    <t>Tela para Alterar Status de Pedido</t>
+  </si>
+  <si>
+    <t>Nesta tela serão listados os Endereços, Documentos, Cartões, Cupons de troca Disponíveis e Pedidos do Cliente, também contando com a possibilidade de Alterar apenas as senhas, Alterar dados do cliente e Excluir Cartões, Documentos e Endereços do cliente.</t>
   </si>
 </sst>
 </file>
@@ -298,6 +349,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,18 +382,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -380,12 +431,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,232 +506,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="3" builtinId="27"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1236,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B692412-8401-4F44-8DDD-33476696CC96}">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1099,7 @@
     <col min="6" max="6" width="3" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="3" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="40.125" style="4" customWidth="1"/>
     <col min="10" max="10" width="14.75" style="3" customWidth="1"/>
     <col min="11" max="16384" width="10.875" style="3"/>
   </cols>
@@ -1290,11 +1139,11 @@
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1345,8 +1194,8 @@
         <v>3</v>
       </c>
       <c r="I4" s="21"/>
-      <c r="J4" s="25" t="s">
-        <v>62</v>
+      <c r="J4" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,14 +1218,14 @@
         <v>3</v>
       </c>
       <c r="I5" s="21"/>
-      <c r="J5" s="25" t="s">
-        <v>62</v>
+      <c r="J5" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -1394,13 +1243,13 @@
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="19">
         <v>1</v>
@@ -1418,13 +1267,13 @@
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="19">
         <v>1</v>
@@ -1442,13 +1291,13 @@
       <c r="H8" s="19"/>
       <c r="I8" s="21"/>
       <c r="J8" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
@@ -1466,13 +1315,13 @@
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="19">
         <v>2</v>
@@ -1490,13 +1339,13 @@
       <c r="H10" s="19"/>
       <c r="I10" s="21"/>
       <c r="J10" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="19">
         <v>1</v>
@@ -1514,7 +1363,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="21"/>
       <c r="J11" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1537,8 +1386,8 @@
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="25" t="s">
-        <v>62</v>
+      <c r="J12" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1562,13 +1411,13 @@
       <c r="H13" s="19"/>
       <c r="I13" s="21"/>
       <c r="J13" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="19">
         <v>1</v>
@@ -1586,13 +1435,13 @@
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="19">
         <v>1</v>
@@ -1610,13 +1459,13 @@
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="19">
         <v>3</v>
@@ -1634,13 +1483,13 @@
       <c r="H16" s="19"/>
       <c r="I16" s="21"/>
       <c r="J16" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
@@ -1658,13 +1507,13 @@
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="19">
         <v>2</v>
@@ -1682,13 +1531,13 @@
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="19">
         <v>1</v>
@@ -1706,13 +1555,13 @@
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="19">
         <v>4</v>
@@ -1729,14 +1578,14 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="26" t="s">
-        <v>63</v>
+      <c r="J20" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="19">
         <v>2</v>
@@ -1753,17 +1602,17 @@
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="26" t="s">
-        <v>63</v>
+      <c r="J21" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="19">
         <v>4</v>
@@ -1780,14 +1629,14 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="26" t="s">
-        <v>63</v>
+      <c r="J22" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="19">
         <v>2</v>
@@ -1804,14 +1653,14 @@
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="26" t="s">
-        <v>63</v>
+      <c r="J23" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="19">
         <v>1</v>
@@ -1828,14 +1677,14 @@
         <v>3</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="J24" s="26" t="s">
-        <v>63</v>
+      <c r="J24" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="19">
         <v>1</v>
@@ -1852,14 +1701,14 @@
         <v>3</v>
       </c>
       <c r="I25" s="21"/>
-      <c r="J25" s="26" t="s">
-        <v>63</v>
+      <c r="J25" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="19">
         <v>2</v>
@@ -1876,14 +1725,14 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="26" t="s">
-        <v>63</v>
+      <c r="J26" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="19">
         <v>1</v>
@@ -1900,14 +1749,14 @@
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="26" t="s">
-        <v>63</v>
+      <c r="J27" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="19">
         <v>4</v>
@@ -1924,14 +1773,14 @@
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="26" t="s">
-        <v>63</v>
+      <c r="J28" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="19">
         <v>4</v>
@@ -1948,14 +1797,14 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="26" t="s">
-        <v>63</v>
+      <c r="J29" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="19">
         <v>2</v>
@@ -1972,14 +1821,14 @@
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="26" t="s">
-        <v>63</v>
+      <c r="J30" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="19">
         <v>4</v>
@@ -1996,14 +1845,14 @@
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="26" t="s">
-        <v>63</v>
+      <c r="J31" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="19">
         <v>4</v>
@@ -2020,14 +1869,14 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="26" t="s">
-        <v>63</v>
+      <c r="J32" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="19">
         <v>1</v>
@@ -2044,14 +1893,14 @@
         <v>3</v>
       </c>
       <c r="I33" s="21"/>
-      <c r="J33" s="26" t="s">
-        <v>63</v>
+      <c r="J33" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="19">
         <v>2</v>
@@ -2068,14 +1917,14 @@
         <v>3</v>
       </c>
       <c r="I34" s="21"/>
-      <c r="J34" s="26" t="s">
-        <v>63</v>
+      <c r="J34" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="19">
         <v>3</v>
@@ -2092,14 +1941,14 @@
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="26" t="s">
-        <v>63</v>
+      <c r="J35" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="19">
         <v>3</v>
@@ -2116,14 +1965,14 @@
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="26" t="s">
-        <v>63</v>
+      <c r="J36" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="19">
         <v>4</v>
@@ -2140,8 +1989,8 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="26" t="s">
-        <v>63</v>
+      <c r="J37" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2161,7 +2010,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="19">
         <v>2</v>
@@ -2178,14 +2027,14 @@
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="21"/>
-      <c r="J39" s="25" t="s">
-        <v>61</v>
+      <c r="J39" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="22" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C40" s="19">
         <v>2</v>
@@ -2201,39 +2050,35 @@
         <v>2</v>
       </c>
       <c r="H40" s="19"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="25" t="s">
-        <v>61</v>
+      <c r="I40" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="19">
-        <v>2</v>
-      </c>
-      <c r="D41" s="19">
-        <v>3</v>
-      </c>
-      <c r="E41" s="19">
-        <v>4</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="21"/>
-      <c r="J41" s="25" t="s">
-        <v>61</v>
+      <c r="J41" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="22" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C42" s="19">
         <v>2</v>
@@ -2250,14 +2095,14 @@
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="21"/>
-      <c r="J42" s="25" t="s">
-        <v>61</v>
+      <c r="J42" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" s="19">
         <v>2</v>
@@ -2274,14 +2119,14 @@
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="21"/>
-      <c r="J43" s="25" t="s">
-        <v>61</v>
+      <c r="J43" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="22" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C44" s="19">
         <v>2</v>
@@ -2298,14 +2143,14 @@
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="25" t="s">
-        <v>61</v>
+      <c r="J44" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C45" s="19">
         <v>2</v>
@@ -2322,14 +2167,14 @@
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="21"/>
-      <c r="J45" s="25" t="s">
-        <v>61</v>
+      <c r="J45" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="22" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C46" s="19">
         <v>2</v>
@@ -2346,14 +2191,14 @@
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="21"/>
-      <c r="J46" s="25" t="s">
-        <v>61</v>
+      <c r="J46" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="22" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C47" s="19">
         <v>2</v>
@@ -2370,14 +2215,14 @@
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="21"/>
-      <c r="J47" s="25" t="s">
-        <v>61</v>
+      <c r="J47" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="22" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C48" s="19">
         <v>2</v>
@@ -2394,14 +2239,14 @@
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="21"/>
-      <c r="J48" s="25" t="s">
-        <v>61</v>
+      <c r="J48" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="22" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C49" s="19">
         <v>2</v>
@@ -2418,14 +2263,14 @@
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="21"/>
-      <c r="J49" s="25" t="s">
-        <v>61</v>
+      <c r="J49" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="22" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C50" s="19">
         <v>2</v>
@@ -2442,14 +2287,14 @@
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="21"/>
-      <c r="J50" s="25" t="s">
-        <v>61</v>
+      <c r="J50" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="22" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C51" s="19">
         <v>2</v>
@@ -2466,53 +2311,371 @@
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="21"/>
-      <c r="J51" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="C52" s="14">
-        <f>SUM(C4:C51)</f>
-        <v>99</v>
-      </c>
-      <c r="D52" s="10">
-        <f>SUM(D4:D51)</f>
-        <v>159</v>
-      </c>
-      <c r="E52" s="13">
-        <f>SUM(E4:E51)</f>
-        <v>229</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
+      <c r="J51" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="19">
+        <v>2</v>
+      </c>
+      <c r="D52" s="19">
+        <v>3</v>
+      </c>
+      <c r="E52" s="19">
+        <v>4</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="19">
+        <v>2</v>
+      </c>
+      <c r="D53" s="19">
+        <v>3</v>
+      </c>
+      <c r="E53" s="19">
+        <v>4</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="19">
+        <v>2</v>
+      </c>
+      <c r="D54" s="19">
+        <v>3</v>
+      </c>
+      <c r="E54" s="19">
+        <v>4</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="19">
+        <v>2</v>
+      </c>
+      <c r="D55" s="19">
+        <v>3</v>
+      </c>
+      <c r="E55" s="19">
+        <v>4</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="19">
+        <v>2</v>
+      </c>
+      <c r="D56" s="19">
+        <v>3</v>
+      </c>
+      <c r="E56" s="19">
+        <v>4</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="19">
+        <v>2</v>
+      </c>
+      <c r="D57" s="19">
+        <v>3</v>
+      </c>
+      <c r="E57" s="19">
+        <v>4</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="19">
+        <v>2</v>
+      </c>
+      <c r="D58" s="19">
+        <v>3</v>
+      </c>
+      <c r="E58" s="19">
+        <v>4</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+      <c r="B59" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="19">
+        <v>2</v>
+      </c>
+      <c r="D59" s="19">
+        <v>3</v>
+      </c>
+      <c r="E59" s="19">
+        <v>4</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="19">
+        <v>2</v>
+      </c>
+      <c r="D60" s="19">
+        <v>3</v>
+      </c>
+      <c r="E60" s="19">
+        <v>4</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+      <c r="B62" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="19">
+        <v>2</v>
+      </c>
+      <c r="D62" s="19">
+        <v>3</v>
+      </c>
+      <c r="E62" s="19">
+        <v>4</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+      <c r="B63" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="19">
+        <v>2</v>
+      </c>
+      <c r="D63" s="19">
+        <v>3</v>
+      </c>
+      <c r="E63" s="19">
+        <v>4</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+      <c r="B64" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="19">
+        <v>2</v>
+      </c>
+      <c r="D64" s="19">
+        <v>3</v>
+      </c>
+      <c r="E64" s="19">
+        <v>4</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+      <c r="B65" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="19">
+        <v>2</v>
+      </c>
+      <c r="D65" s="19">
+        <v>3</v>
+      </c>
+      <c r="E65" s="19">
+        <v>4</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="C66" s="14">
+        <f>SUM(C4:C65)</f>
+        <v>123</v>
+      </c>
+      <c r="D66" s="10">
+        <f>SUM(D4:D65)</f>
+        <v>195</v>
+      </c>
+      <c r="E66" s="13">
+        <f>SUM(E4:E65)</f>
+        <v>277</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:H3 F1 H1 F52:H1048576 H39:H51 F39:F51 H10:H37 F4:G37">
-    <cfRule type="containsText" dxfId="44" priority="94" operator="containsText" text=":)">
+  <conditionalFormatting sqref="F2:H3 F1 H1 H10:H37 F4:G37 F39:H1048576">
+    <cfRule type="containsText" dxfId="23" priority="94" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="95" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="22" priority="95" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="96" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="21" priority="96" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2527,13 +2690,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:H38">
-    <cfRule type="containsText" dxfId="41" priority="87" operator="containsText" text=":)">
+    <cfRule type="containsText" dxfId="20" priority="87" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="88" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="19" priority="88" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="89" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="18" priority="89" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2548,68 +2711,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="38" priority="79" operator="containsText" text=":)">
+    <cfRule type="containsText" dxfId="17" priority="79" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="80" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="16" priority="80" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="81" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="15" priority="81" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="35" priority="73" operator="containsText" text=":)">
+    <cfRule type="containsText" dxfId="14" priority="73" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="13" priority="74" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="12" priority="75" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G51">
-    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text=":)">
-      <formula>NOT(ISERROR(SEARCH(":)",G39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="56" operator="containsText" text=":|">
-      <formula>NOT(ISERROR(SEARCH(":|",G39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="57" operator="containsText" text=":(">
-      <formula>NOT(ISERROR(SEARCH(":(",G39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H4:H7">
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text=":)">
+    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="9" priority="24" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text=":)">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3 T3">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text=":)">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",R3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",R3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="3" priority="18" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",R3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2624,13 +2776,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text=":)">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text=":)">
       <formula>NOT(ISERROR(SEARCH(":)",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text=":|">
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text=":|">
       <formula>NOT(ISERROR(SEARCH(":|",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text=":(">
+    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text=":(">
       <formula>NOT(ISERROR(SEARCH(":(",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2640,23 +2792,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100301B24C317AEAA4A9E81584B0F1753BF" ma:contentTypeVersion="1" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ea2d69a61fc7a42705a79b5983b790a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="13526e60-2309-4b29-b958-df71ed96cd48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0df65a6dff0c15483f5753a509519d7a" ns2:_="">
     <xsd:import namespace="13526e60-2309-4b29-b958-df71ed96cd48"/>
@@ -2782,25 +2917,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA58E31-EA10-4926-9E03-5E76E8F2B1AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2816,4 +2950,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
+++ b/Documentos/Estimativa de Projeto/ESTIMATIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrenoXDMoon\Documents\GitHub\ProjetoLes\Documentos\Estimativa de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60EC19B-9576-4B9A-A7AA-333DF0028B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50712AC6-CB01-454A-95DD-1602E6491EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9FF7230-91BA-A544-8A5A-3054F2DD43A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="81">
   <si>
     <t>(horas)</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Realizar compra</t>
   </si>
   <si>
-    <t>Calcular frete</t>
-  </si>
-  <si>
     <t>Selecionar endereço de entrega</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>Nesta tela serão listados os Endereços, Documentos, Cartões, Cupons de troca Disponíveis e Pedidos do Cliente, também contando com a possibilidade de Alterar apenas as senhas, Alterar dados do cliente e Excluir Cartões, Documentos e Endereços do cliente.</t>
+  </si>
+  <si>
+    <t>Cadastro de Documentos de entrega de Cliente</t>
   </si>
 </sst>
 </file>
@@ -355,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,7 +443,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,9 +515,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +523,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1087,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B692412-8401-4F44-8DDD-33476696CC96}">
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:J51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1139,11 +1148,11 @@
       <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1194,8 +1203,8 @@
         <v>3</v>
       </c>
       <c r="I4" s="21"/>
-      <c r="J4" s="26" t="s">
-        <v>60</v>
+      <c r="J4" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,14 +1227,14 @@
         <v>3</v>
       </c>
       <c r="I5" s="21"/>
-      <c r="J5" s="26" t="s">
-        <v>60</v>
+      <c r="J5" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="19">
         <v>1</v>
@@ -1242,14 +1251,14 @@
         <v>3</v>
       </c>
       <c r="I6" s="21"/>
-      <c r="J6" s="26" t="s">
-        <v>60</v>
+      <c r="J6" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="19">
         <v>1</v>
@@ -1266,14 +1275,14 @@
         <v>3</v>
       </c>
       <c r="I7" s="21"/>
-      <c r="J7" s="26" t="s">
-        <v>60</v>
+      <c r="J7" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="19">
         <v>1</v>
@@ -1290,14 +1299,14 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="26" t="s">
-        <v>60</v>
+      <c r="J8" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="19">
         <v>1</v>
@@ -1314,14 +1323,14 @@
         <v>3</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="26" t="s">
-        <v>60</v>
+      <c r="J9" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="19">
         <v>2</v>
@@ -1338,14 +1347,14 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="26" t="s">
-        <v>60</v>
+      <c r="J10" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="19">
         <v>1</v>
@@ -1362,8 +1371,8 @@
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="26" t="s">
-        <v>60</v>
+      <c r="J11" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1386,8 +1395,8 @@
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="26" t="s">
-        <v>60</v>
+      <c r="J12" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1410,8 +1419,8 @@
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="26" t="s">
-        <v>60</v>
+      <c r="J13" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1434,8 +1443,8 @@
         <v>3</v>
       </c>
       <c r="I14" s="21"/>
-      <c r="J14" s="26" t="s">
-        <v>60</v>
+      <c r="J14" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1458,8 +1467,8 @@
         <v>3</v>
       </c>
       <c r="I15" s="21"/>
-      <c r="J15" s="26" t="s">
-        <v>60</v>
+      <c r="J15" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1482,8 +1491,8 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="26" t="s">
-        <v>60</v>
+      <c r="J16" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1506,47 +1515,45 @@
         <v>3</v>
       </c>
       <c r="I17" s="21"/>
-      <c r="J17" s="26" t="s">
-        <v>60</v>
+      <c r="J17" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="23" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C18" s="19">
         <v>2</v>
       </c>
       <c r="D18" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="19">
-        <v>4</v>
-      </c>
-      <c r="F18" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="H18" s="19"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="26" t="s">
-        <v>60</v>
-      </c>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -1554,47 +1561,47 @@
         <v>3</v>
       </c>
       <c r="I19" s="21"/>
-      <c r="J19" s="26" t="s">
-        <v>60</v>
+      <c r="J19" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
+        <v>3</v>
+      </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="24" t="s">
-        <v>58</v>
+      <c r="J20" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19" t="s">
@@ -1602,65 +1609,65 @@
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>47</v>
+      <c r="J21" s="24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" s="19">
-        <v>9</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H22" s="19"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="28" t="s">
-        <v>59</v>
+      <c r="J22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23" s="19">
-        <v>4</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19" t="s">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="28" t="s">
-        <v>59</v>
+      <c r="J23" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="19">
         <v>1</v>
@@ -1677,14 +1684,14 @@
         <v>3</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="J24" s="28" t="s">
-        <v>59</v>
+      <c r="J24" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="19">
         <v>1</v>
@@ -1701,14 +1708,14 @@
         <v>3</v>
       </c>
       <c r="I25" s="21"/>
-      <c r="J25" s="28" t="s">
-        <v>59</v>
+      <c r="J25" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="19">
         <v>2</v>
@@ -1725,14 +1732,14 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="21"/>
-      <c r="J26" s="28" t="s">
-        <v>59</v>
+      <c r="J26" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="19">
         <v>1</v>
@@ -1749,14 +1756,14 @@
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="21"/>
-      <c r="J27" s="28" t="s">
-        <v>59</v>
+      <c r="J27" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="19">
         <v>4</v>
@@ -1773,14 +1780,14 @@
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="28" t="s">
-        <v>59</v>
+      <c r="J28" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="19">
         <v>4</v>
@@ -1797,14 +1804,14 @@
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="28" t="s">
-        <v>59</v>
+      <c r="J29" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="19">
         <v>2</v>
@@ -1821,14 +1828,14 @@
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="28" t="s">
-        <v>59</v>
+      <c r="J30" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="19">
         <v>4</v>
@@ -1845,14 +1852,14 @@
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="28" t="s">
-        <v>59</v>
+      <c r="J31" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="19">
         <v>4</v>
@@ -1869,14 +1876,14 @@
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="28" t="s">
-        <v>59</v>
+      <c r="J32" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="19">
         <v>1</v>
@@ -1893,14 +1900,14 @@
         <v>3</v>
       </c>
       <c r="I33" s="21"/>
-      <c r="J33" s="28" t="s">
-        <v>59</v>
+      <c r="J33" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="19">
         <v>2</v>
@@ -1917,14 +1924,14 @@
         <v>3</v>
       </c>
       <c r="I34" s="21"/>
-      <c r="J34" s="28" t="s">
-        <v>59</v>
+      <c r="J34" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="19">
         <v>3</v>
@@ -1941,14 +1948,14 @@
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="28" t="s">
-        <v>59</v>
+      <c r="J35" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="19">
         <v>3</v>
@@ -1965,14 +1972,14 @@
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="28" t="s">
-        <v>59</v>
+      <c r="J36" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="19">
         <v>4</v>
@@ -1980,7 +1987,7 @@
       <c r="D37" s="19">
         <v>7</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="29">
         <v>13</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -1989,8 +1996,8 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="28" t="s">
-        <v>59</v>
+      <c r="J37" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2010,7 +2017,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="19">
         <v>2</v>
@@ -2027,14 +2034,14 @@
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="21"/>
-      <c r="J39" s="26" t="s">
-        <v>60</v>
+      <c r="J39" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="19">
         <v>2</v>
@@ -2051,16 +2058,16 @@
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -2071,14 +2078,14 @@
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="21"/>
-      <c r="J41" s="26" t="s">
-        <v>60</v>
+      <c r="J41" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="19">
         <v>2</v>
@@ -2095,8 +2102,8 @@
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="21"/>
-      <c r="J42" s="26" t="s">
-        <v>60</v>
+      <c r="J42" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2119,14 +2126,14 @@
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="21"/>
-      <c r="J43" s="26" t="s">
-        <v>60</v>
+      <c r="J43" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="19">
         <v>2</v>
@@ -2143,14 +2150,14 @@
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="21"/>
-      <c r="J44" s="26" t="s">
-        <v>60</v>
+      <c r="J44" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="19">
         <v>2</v>
@@ -2167,14 +2174,14 @@
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="21"/>
-      <c r="J45" s="26" t="s">
-        <v>60</v>
+      <c r="J45" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="19">
         <v>2</v>
@@ -2191,14 +2198,14 @@
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="21"/>
-      <c r="J46" s="26" t="s">
-        <v>60</v>
+      <c r="J46" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="19">
         <v>2</v>
@@ -2215,14 +2222,14 @@
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="21"/>
-      <c r="J47" s="26" t="s">
-        <v>60</v>
+      <c r="J47" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="19">
         <v>2</v>
@@ -2239,14 +2246,14 @@
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="21"/>
-      <c r="J48" s="26" t="s">
-        <v>60</v>
+      <c r="J48" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="19">
         <v>2</v>
@@ -2263,14 +2270,14 @@
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="21"/>
-      <c r="J49" s="26" t="s">
-        <v>60</v>
+      <c r="J49" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="19">
         <v>2</v>
@@ -2287,14 +2294,14 @@
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="21"/>
-      <c r="J50" s="26" t="s">
-        <v>60</v>
+      <c r="J50" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="19">
         <v>2</v>
@@ -2311,14 +2318,14 @@
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="21"/>
-      <c r="J51" s="26" t="s">
-        <v>60</v>
+      <c r="J51" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19">
         <v>2</v>
@@ -2330,19 +2337,21 @@
         <v>4</v>
       </c>
       <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="G52" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H52" s="19"/>
-      <c r="I52" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>58</v>
+      <c r="I52" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="19">
         <v>2</v>
@@ -2354,17 +2363,19 @@
         <v>4</v>
       </c>
       <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="G53" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H53" s="19"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="24" t="s">
-        <v>58</v>
+      <c r="I53" s="26"/>
+      <c r="J53" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="19">
         <v>2</v>
@@ -2376,17 +2387,19 @@
         <v>4</v>
       </c>
       <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="G54" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H54" s="19"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="24" t="s">
-        <v>58</v>
+      <c r="I54" s="26"/>
+      <c r="J54" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="19">
         <v>2</v>
@@ -2398,17 +2411,19 @@
         <v>4</v>
       </c>
       <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="G55" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H55" s="19"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="24" t="s">
-        <v>58</v>
+      <c r="I55" s="26"/>
+      <c r="J55" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="19">
         <v>2</v>
@@ -2420,19 +2435,21 @@
         <v>4</v>
       </c>
       <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="G56" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H56" s="19"/>
-      <c r="I56" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>58</v>
+      <c r="I56" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="19">
         <v>2</v>
@@ -2444,17 +2461,19 @@
         <v>4</v>
       </c>
       <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H57" s="19"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="24" t="s">
-        <v>58</v>
+      <c r="I57" s="26"/>
+      <c r="J57" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="19">
         <v>2</v>
@@ -2471,14 +2490,14 @@
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="21"/>
-      <c r="J58" s="24" t="s">
-        <v>58</v>
+      <c r="J58" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="19">
         <v>2</v>
@@ -2495,14 +2514,14 @@
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="21"/>
-      <c r="J59" s="24" t="s">
-        <v>58</v>
+      <c r="J59" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="19">
         <v>2</v>
@@ -2519,28 +2538,32 @@
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="21"/>
-      <c r="J60" s="24" t="s">
-        <v>58</v>
+      <c r="J60" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+      <c r="G61" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H61" s="19"/>
       <c r="I61" s="21"/>
-      <c r="J61" s="24"/>
+      <c r="J61" s="25" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="19">
         <v>2</v>
@@ -2557,14 +2580,14 @@
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="21"/>
-      <c r="J62" s="24" t="s">
-        <v>58</v>
+      <c r="J62" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C63" s="19">
         <v>2</v>
@@ -2581,14 +2604,14 @@
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="21"/>
-      <c r="J63" s="24" t="s">
-        <v>58</v>
+      <c r="J63" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" s="19">
         <v>2</v>
@@ -2605,14 +2628,14 @@
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="21"/>
-      <c r="J64" s="24" t="s">
-        <v>58</v>
+      <c r="J64" s="25" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="19">
         <v>2</v>
@@ -2630,7 +2653,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="21"/>
       <c r="J65" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2641,11 +2664,11 @@
       </c>
       <c r="D66" s="10">
         <f>SUM(D4:D65)</f>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E66" s="13">
         <f>SUM(E4:E65)</f>
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -2679,7 +2702,7 @@
       <formula>NOT(ISERROR(SEARCH(":(",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E37 C39:E1048576">
+  <conditionalFormatting sqref="C39:E1048576 C1:E37">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="num" val="8"/>
@@ -2792,6 +2815,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100301B24C317AEAA4A9E81584B0F1753BF" ma:contentTypeVersion="1" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ea2d69a61fc7a42705a79b5983b790a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="13526e60-2309-4b29-b958-df71ed96cd48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0df65a6dff0c15483f5753a509519d7a" ns2:_="">
     <xsd:import namespace="13526e60-2309-4b29-b958-df71ed96cd48"/>
@@ -2917,24 +2957,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="13526e60-2309-4b29-b958-df71ed96cd48" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA58E31-EA10-4926-9E03-5E76E8F2B1AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2950,22 +2991,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55BC6FF-54C9-4DD8-8203-E7CA3890AFA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C51C229-CA01-440E-B2BE-F6F69B7DA214}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13526e60-2309-4b29-b958-df71ed96cd48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>